--- a/data/trans_dic/Q23_tabaco_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Q23_tabaco_R2-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.4450491834286733</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.3321805650323603</v>
+        <v>0.3321805650323604</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2842573231499376</v>
+        <v>0.2818901572838663</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3209522068079526</v>
+        <v>0.3176448107620861</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4383103380620422</v>
+        <v>0.4348753595230679</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3184106637082426</v>
+        <v>0.3171952191008549</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1482926073698261</v>
+        <v>0.1552670665340253</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2439757121436955</v>
+        <v>0.2386975433570394</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2676781364246975</v>
+        <v>0.2600419727555555</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1474844759720552</v>
+        <v>0.14719519179695</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2602582240267292</v>
+        <v>0.256616129144511</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3133682873861373</v>
+        <v>0.3089241024403886</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3869544544774101</v>
+        <v>0.3892076933602138</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2726316994493192</v>
+        <v>0.2713042670565813</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4560632801161832</v>
+        <v>0.4555037261729765</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4745926783025013</v>
+        <v>0.4780319873476374</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5972859903044678</v>
+        <v>0.5936757145736121</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4934234655438752</v>
+        <v>0.4895202544611917</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3724659586715871</v>
+        <v>0.3630178764986724</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4234988176476088</v>
+        <v>0.4299622991199274</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.430972355493641</v>
+        <v>0.4426237460483134</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2944603466904135</v>
+        <v>0.287505225548648</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3970526295883065</v>
+        <v>0.38898112152077</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4314246344385568</v>
+        <v>0.4272740424850752</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5096981340989856</v>
+        <v>0.5078156450282888</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4002439504856963</v>
+        <v>0.3913240836934339</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2717399073043128</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2659435792373399</v>
+        <v>0.2659435792373398</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3690725581083529</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3556470456848677</v>
+        <v>0.356813476944594</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3696521999849972</v>
+        <v>0.3740119544043606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2674628150061669</v>
+        <v>0.2660907055296164</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.274913608744369</v>
+        <v>0.2792253684587447</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2094604242001258</v>
+        <v>0.2104242384293933</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2441485891992724</v>
+        <v>0.2424713143431231</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.207660569412006</v>
+        <v>0.2082769782948856</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2093452843647996</v>
+        <v>0.2028579584340272</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3244759578712267</v>
+        <v>0.3194016077346191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3410301652062678</v>
+        <v>0.340284090747578</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2632578252483956</v>
+        <v>0.2620968506307475</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.266390933418103</v>
+        <v>0.2658321330370827</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4809107433081509</v>
+        <v>0.4847932619932362</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4846994770557893</v>
+        <v>0.4950907746131658</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3753401207581468</v>
+        <v>0.37492835764317</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.408740940293666</v>
+        <v>0.4159327192550721</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3517459284531801</v>
+        <v>0.3641779530033096</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3765504335370321</v>
+        <v>0.3829405696954402</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3380591956980008</v>
+        <v>0.3440699704728019</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3289065991945604</v>
+        <v>0.3260832171262057</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4228666758233916</v>
+        <v>0.4160105180120768</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4302016819892644</v>
+        <v>0.4298701723372158</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3513602287460231</v>
+        <v>0.3511029745688317</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3657657824177294</v>
+        <v>0.3610601584753264</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3251123179650068</v>
+        <v>0.3234873710296226</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2855541329985162</v>
+        <v>0.2827414544706844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2527426439879404</v>
+        <v>0.2454449017683225</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4242516717394863</v>
+        <v>0.42658202198103</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.178303926315811</v>
+        <v>0.1769238020972466</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1789180928809524</v>
+        <v>0.1791892629525744</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2002289873789079</v>
+        <v>0.1979100662319408</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1787505352088843</v>
+        <v>0.1786636323171786</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2889413818171566</v>
+        <v>0.2940029715388845</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2665184006374335</v>
+        <v>0.2637915758086614</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2455089253947083</v>
+        <v>0.2450096104586816</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3347481991752356</v>
+        <v>0.3312920864750163</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4737024022834994</v>
+        <v>0.4712814921478859</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4179290377861911</v>
+        <v>0.4205063343860954</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3924393524062474</v>
+        <v>0.3939314299670831</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.580391478903846</v>
+        <v>0.5841466922226545</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3471436008452216</v>
+        <v>0.3545927215819701</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3608230960877229</v>
+        <v>0.3428438666333813</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3790919959015427</v>
+        <v>0.364528903576168</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3066830598281267</v>
+        <v>0.3131256742066561</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.403425718033458</v>
+        <v>0.4104016811327723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3703185676405071</v>
+        <v>0.3723851277111279</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3625907665431894</v>
+        <v>0.3553790209062795</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4421842167172924</v>
+        <v>0.4416454434548068</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.3502408323111898</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2285585749942339</v>
+        <v>0.2285585749942338</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2445518731408348</v>
+        <v>0.2480002561975497</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2692730884882802</v>
+        <v>0.2698420406980914</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3415989419780339</v>
+        <v>0.3387672668228769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1763452971847653</v>
+        <v>0.1696233047951404</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1414544845592931</v>
+        <v>0.145137674872366</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1134608838745858</v>
+        <v>0.1161134240312352</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1966687575827541</v>
+        <v>0.2015759648099528</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.152791831872095</v>
+        <v>0.155172661157431</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2217220658578179</v>
+        <v>0.225814024903902</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2223078996893701</v>
+        <v>0.224448109800077</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2989749903485284</v>
+        <v>0.3049949924454816</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1836272278961337</v>
+        <v>0.1841464185513979</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3687076996265047</v>
+        <v>0.3738273223132224</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4146594001824657</v>
+        <v>0.4213780306811004</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4737905707275931</v>
+        <v>0.4692086527790343</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3090342151297471</v>
+        <v>0.312979072141937</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2784654651472203</v>
+        <v>0.282955620925559</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2580535018098817</v>
+        <v>0.2515614353619986</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3485602532386863</v>
+        <v>0.3448668580184627</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3077778458792084</v>
+        <v>0.3052974705232563</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3193131398662663</v>
+        <v>0.3158825429764352</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3211032651419425</v>
+        <v>0.3228568525749049</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3997078523896707</v>
+        <v>0.4024470890720637</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2863612075922983</v>
+        <v>0.2872422951893725</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3052463631811447</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2569549213097126</v>
+        <v>0.2569549213097125</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1471659876572314</v>
+        <v>0.1509277631628544</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3145480643225644</v>
+        <v>0.3215682024074278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2331771920887271</v>
+        <v>0.2420753862670601</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1570628305532873</v>
+        <v>0.1646140847077412</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.195152060609363</v>
+        <v>0.1908520277594463</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2266402808800326</v>
+        <v>0.2368589691792605</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1810500929577422</v>
+        <v>0.1960502277562796</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1755521868984841</v>
+        <v>0.1738843670407369</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1953959077615122</v>
+        <v>0.1950842879522784</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3109371123058502</v>
+        <v>0.3162274616185206</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2412794162619048</v>
+        <v>0.2472156916980829</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1870182712881881</v>
+        <v>0.1908256479964935</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3147810365902162</v>
+        <v>0.3165302173263271</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4908237253872946</v>
+        <v>0.4971386019770559</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4140732894851147</v>
+        <v>0.414890223560516</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3434636025328018</v>
+        <v>0.3550598669643356</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4167031468040644</v>
+        <v>0.4049910436258196</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.427005945841908</v>
+        <v>0.4338884594615754</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3872645855784232</v>
+        <v>0.3965019624695266</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3753676070207648</v>
+        <v>0.3845825363524432</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3220481387731914</v>
+        <v>0.3251157165059889</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4361939059161009</v>
+        <v>0.4407485486529688</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3716632551820572</v>
+        <v>0.3774311934212037</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.322542302989323</v>
+        <v>0.3262410279721176</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3221338384503543</v>
+        <v>0.3235638024100439</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2900568500243262</v>
+        <v>0.2922539595926693</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2127343865191944</v>
+        <v>0.2153442453604144</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3406937513781691</v>
+        <v>0.3371533217746125</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1986082591785509</v>
+        <v>0.2032283891517805</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.205554387264973</v>
+        <v>0.2046333734170862</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07582952043033445</v>
+        <v>0.07502745401110339</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2180305075679561</v>
+        <v>0.2184174638000873</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3085457508365838</v>
+        <v>0.3047211250334712</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2877367633105217</v>
+        <v>0.2876143492074675</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1726137744352708</v>
+        <v>0.1704869478447791</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.3249455431564066</v>
+        <v>0.3201546230126711</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4790148771909866</v>
+        <v>0.4859591350292624</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4428890197818822</v>
+        <v>0.4439293441602683</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3696022858694654</v>
+        <v>0.3734591939898004</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4983717425569316</v>
+        <v>0.4971706447893822</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4031012251485125</v>
+        <v>0.4089291312706061</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3999280297513593</v>
+        <v>0.4050845506333247</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2165977561533241</v>
+        <v>0.2210244808578967</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4210709049600074</v>
+        <v>0.4134442273290362</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4332224342700536</v>
+        <v>0.4365446387912507</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4071762722296481</v>
+        <v>0.4048843029317524</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2854627966551332</v>
+        <v>0.2794264212343384</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4485251122725811</v>
+        <v>0.4396065040671747</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3302496715484685</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3676477663960029</v>
+        <v>0.3676477663960028</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.278623704005954</v>
@@ -1513,7 +1513,7 @@
         <v>0.2869348510414956</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3191803577972874</v>
+        <v>0.3191803577972873</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3060616964742672</v>
+        <v>0.3051959653659973</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3081411907973878</v>
+        <v>0.304219562320794</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2790019588833733</v>
+        <v>0.275772968898812</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.31090244495265</v>
+        <v>0.3082524819125336</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2148164892048701</v>
+        <v>0.2194159878333967</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2321239538122702</v>
+        <v>0.2327380127179262</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.184694361136895</v>
+        <v>0.1818150976889242</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2134215704734303</v>
+        <v>0.2153623624242653</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2838368144672347</v>
+        <v>0.282149574113708</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2915475749609796</v>
+        <v>0.2874700051258229</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2484785474871499</v>
+        <v>0.2534893971671893</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2761653181595082</v>
+        <v>0.2770800083125389</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4122471766962502</v>
+        <v>0.4174459570019041</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4031573766451786</v>
+        <v>0.4066446563328163</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3891898165760415</v>
+        <v>0.3880216151209021</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4270574571238152</v>
+        <v>0.4267459667339291</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3451157216029765</v>
+        <v>0.3531943861497172</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3412210356391453</v>
+        <v>0.3398304388477997</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2955889553394953</v>
+        <v>0.2912490178897116</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3136505643639455</v>
+        <v>0.3158213594198437</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3710827384469763</v>
+        <v>0.3697401567676898</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3644621739675447</v>
+        <v>0.3645408766559008</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3296978466230506</v>
+        <v>0.334316713432285</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3581774648514998</v>
+        <v>0.3589899243601558</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.3274311483001854</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.2064370080013147</v>
+        <v>0.2064370080013146</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2761508832985261</v>
+        <v>0.2759681169280257</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2391862542380858</v>
+        <v>0.2381167918835539</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.328988271339262</v>
+        <v>0.3254569039341901</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1934535304299935</v>
+        <v>0.1894122018807125</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2005141255913749</v>
+        <v>0.2020259012418553</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2068939455150043</v>
+        <v>0.2064561551688459</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2102565208347902</v>
+        <v>0.2091563895273141</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1035805299010797</v>
+        <v>0.09931178178863624</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2643058254037201</v>
+        <v>0.2635363412267667</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2391136890122943</v>
+        <v>0.2386364168076665</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2909154381591563</v>
+        <v>0.2919018219347714</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1742683172745288</v>
+        <v>0.1738627297477128</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3703684927292717</v>
+        <v>0.3700445603118069</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.3309846214310531</v>
+        <v>0.331871743009002</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4320241867163956</v>
+        <v>0.4266697388903649</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2893791937305097</v>
+        <v>0.2861987740353199</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3210870364127947</v>
+        <v>0.3200190394173413</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3185061919615869</v>
+        <v>0.3189990037657348</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3233794208982357</v>
+        <v>0.3188551507496594</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2081618786365552</v>
+        <v>0.1997091855226213</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3401947051175713</v>
+        <v>0.3394366089587237</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3074759404818191</v>
+        <v>0.3075497522148067</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3649620485938885</v>
+        <v>0.3651607303056558</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2447697725254296</v>
+        <v>0.2434851023456903</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.3618991790297297</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.3356092271662746</v>
+        <v>0.3356092271662747</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.2628643810424137</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3315093644701953</v>
+        <v>0.3331761470086834</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3384149496835183</v>
+        <v>0.3380118576919929</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3383398466271505</v>
+        <v>0.3367269282517348</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3120132240333217</v>
+        <v>0.3098566459576633</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2365197931420601</v>
+        <v>0.2368917359900097</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2520175881748818</v>
+        <v>0.2510263389004352</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.2326891972265206</v>
+        <v>0.2338306594577582</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2128662304518341</v>
+        <v>0.2123740501941535</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3030077557531237</v>
+        <v>0.3022428051126271</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.3110605712213123</v>
+        <v>0.3092996203072529</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.3029991456309706</v>
+        <v>0.301391858180751</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2762550639039515</v>
+        <v>0.2772159533026136</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3775364533622764</v>
+        <v>0.3792304801441185</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3836200867741154</v>
+        <v>0.3816015734478762</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3874787181217099</v>
+        <v>0.3831185004547458</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.3603994396211931</v>
+        <v>0.3609538465845013</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2919754152445539</v>
+        <v>0.2912809067324123</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3019926408243084</v>
+        <v>0.302376772754287</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.28346476470259</v>
+        <v>0.2832809334534369</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2591200163771606</v>
+        <v>0.259068970742954</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3395202570995963</v>
+        <v>0.3391815946001931</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3449969312969512</v>
+        <v>0.3436525543666667</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3368526354897558</v>
+        <v>0.337882030448799</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.3118017834981893</v>
+        <v>0.3120012516190254</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37459</v>
+        <v>37147</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>58144</v>
+        <v>57545</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>77111</v>
+        <v>76507</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>40219</v>
+        <v>40066</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>11422</v>
+        <v>11959</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30931</v>
+        <v>30261</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>33859</v>
+        <v>32893</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11617</v>
+        <v>11594</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>54342</v>
+        <v>53582</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>96498</v>
+        <v>95129</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>117023</v>
+        <v>117705</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>55912</v>
+        <v>55639</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60099</v>
+        <v>60025</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>85978</v>
+        <v>86601</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>105080</v>
+        <v>104445</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>62325</v>
+        <v>61832</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28689</v>
+        <v>27961</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53690</v>
+        <v>54509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>54515</v>
+        <v>55988</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>23194</v>
+        <v>22646</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>82905</v>
+        <v>81220</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>132852</v>
+        <v>131573</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>154143</v>
+        <v>153574</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>82082</v>
+        <v>80253</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>94307</v>
+        <v>94617</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>118845</v>
+        <v>120247</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>75278</v>
+        <v>74891</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>70445</v>
+        <v>71550</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27998</v>
+        <v>28127</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>50025</v>
+        <v>49681</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36271</v>
+        <v>36379</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>35361</v>
+        <v>34265</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>129413</v>
+        <v>127389</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>179519</v>
+        <v>179126</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>120077</v>
+        <v>119547</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>113258</v>
+        <v>113020</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>127524</v>
+        <v>128553</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>155834</v>
+        <v>159175</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>105640</v>
+        <v>105524</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>104738</v>
+        <v>106581</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>47016</v>
+        <v>48678</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>77154</v>
+        <v>78463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>59048</v>
+        <v>60098</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>55556</v>
+        <v>55079</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>168655</v>
+        <v>165920</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>226459</v>
+        <v>226285</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>160262</v>
+        <v>160144</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>155508</v>
+        <v>153507</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>55459</v>
+        <v>55182</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>59672</v>
+        <v>59084</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39369</v>
+        <v>38232</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>60941</v>
+        <v>61276</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17733</v>
+        <v>17596</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>21420</v>
+        <v>21453</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>21093</v>
+        <v>20848</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>19814</v>
+        <v>19805</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>78025</v>
+        <v>79392</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>87601</v>
+        <v>86705</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>64105</v>
+        <v>63974</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>85191</v>
+        <v>84312</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>80807</v>
+        <v>80394</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>87334</v>
+        <v>87872</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61129</v>
+        <v>61362</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>83369</v>
+        <v>83909</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34524</v>
+        <v>35265</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43198</v>
+        <v>41045</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39934</v>
+        <v>38400</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>33996</v>
+        <v>34710</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>108940</v>
+        <v>110824</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>121719</v>
+        <v>122398</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>94676</v>
+        <v>92793</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>112533</v>
+        <v>112396</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>49872</v>
+        <v>50575</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>56667</v>
+        <v>56787</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>79485</v>
+        <v>78826</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>34577</v>
+        <v>33259</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>18218</v>
+        <v>18693</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16535</v>
+        <v>16921</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30775</v>
+        <v>31543</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>21657</v>
+        <v>21994</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>73773</v>
+        <v>75134</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>79181</v>
+        <v>79943</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>116351</v>
+        <v>118694</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>62032</v>
+        <v>62207</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>75192</v>
+        <v>76236</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>87263</v>
+        <v>88677</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>110244</v>
+        <v>109178</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>60594</v>
+        <v>61368</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>35864</v>
+        <v>36442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37606</v>
+        <v>36660</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>54544</v>
+        <v>53966</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>43624</v>
+        <v>43273</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>106244</v>
+        <v>105102</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>114369</v>
+        <v>114994</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>155554</v>
+        <v>156620</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>96737</v>
+        <v>97035</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14700</v>
+        <v>15075</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>43694</v>
+        <v>44669</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26991</v>
+        <v>28021</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8924</v>
+        <v>9353</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>14546</v>
+        <v>14226</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20917</v>
+        <v>21860</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>13038</v>
+        <v>14118</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7198</v>
+        <v>7130</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>34081</v>
+        <v>34027</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>71890</v>
+        <v>73113</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>45304</v>
+        <v>46419</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>18295</v>
+        <v>18667</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>31442</v>
+        <v>31616</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>68181</v>
+        <v>69058</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>47931</v>
+        <v>48025</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19515</v>
+        <v>20173</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>31060</v>
+        <v>30187</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>39409</v>
+        <v>40044</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>27888</v>
+        <v>28554</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15392</v>
+        <v>15769</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>56172</v>
+        <v>56707</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>100849</v>
+        <v>101902</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>69786</v>
+        <v>70869</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>31552</v>
+        <v>31914</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>50298</v>
+        <v>50521</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>47848</v>
+        <v>48211</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>28471</v>
+        <v>28820</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>41057</v>
+        <v>40631</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15269</v>
+        <v>15624</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>17699</v>
+        <v>17620</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>6676</v>
+        <v>6606</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>13166</v>
+        <v>13189</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>71896</v>
+        <v>71005</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>72241</v>
+        <v>72210</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>38300</v>
+        <v>37828</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>58782</v>
+        <v>57915</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>74793</v>
+        <v>75877</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>73060</v>
+        <v>73231</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>49465</v>
+        <v>49982</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>60059</v>
+        <v>59915</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>30990</v>
+        <v>31438</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>34435</v>
+        <v>34879</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>19071</v>
+        <v>19460</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>25427</v>
+        <v>24966</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>100948</v>
+        <v>101722</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>102228</v>
+        <v>101652</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>63338</v>
+        <v>61999</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>81137</v>
+        <v>79523</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>91000</v>
+        <v>90743</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>127539</v>
+        <v>125916</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>87340</v>
+        <v>86329</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>102404</v>
+        <v>101532</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>40038</v>
+        <v>40895</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>63226</v>
+        <v>63393</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>46005</v>
+        <v>45288</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>59971</v>
+        <v>60517</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>137294</v>
+        <v>136478</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>200083</v>
+        <v>197285</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>139678</v>
+        <v>142495</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>168565</v>
+        <v>169124</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>122572</v>
+        <v>124118</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>166866</v>
+        <v>168309</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>121834</v>
+        <v>121468</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>140663</v>
+        <v>140561</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>64323</v>
+        <v>65829</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>92942</v>
+        <v>92563</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>73628</v>
+        <v>72547</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>88135</v>
+        <v>88745</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>179496</v>
+        <v>178846</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>250123</v>
+        <v>250177</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>185334</v>
+        <v>187930</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>218624</v>
+        <v>219120</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>107671</v>
+        <v>107600</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>94710</v>
+        <v>94286</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>118559</v>
+        <v>117286</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>61416</v>
+        <v>60133</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>44123</v>
+        <v>44456</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>55578</v>
+        <v>55460</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>57267</v>
+        <v>56968</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>17946</v>
+        <v>17206</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>161213</v>
+        <v>160744</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>158914</v>
+        <v>158597</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>184074</v>
+        <v>184699</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>85518</v>
+        <v>85319</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>144407</v>
+        <v>144280</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>131059</v>
+        <v>131410</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>155690</v>
+        <v>153761</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>91870</v>
+        <v>90860</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>70655</v>
+        <v>70420</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>85560</v>
+        <v>85692</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>88078</v>
+        <v>86846</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>36065</v>
+        <v>34601</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>207501</v>
+        <v>207039</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>204347</v>
+        <v>204396</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>230927</v>
+        <v>231053</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>120115</v>
+        <v>119484</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>568445</v>
+        <v>571303</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>688951</v>
+        <v>688131</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>598469</v>
+        <v>595616</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>482514</v>
+        <v>479179</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>235758</v>
+        <v>236129</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>331788</v>
+        <v>330483</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>289582</v>
+        <v>291002</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>224768</v>
+        <v>224249</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>821605</v>
+        <v>819530</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1042782</v>
+        <v>1036879</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>913039</v>
+        <v>908196</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>718917</v>
+        <v>721418</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>647368</v>
+        <v>650273</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>780981</v>
+        <v>776871</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>685387</v>
+        <v>677675</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>557341</v>
+        <v>558199</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>291036</v>
+        <v>290343</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>397581</v>
+        <v>398087</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>352772</v>
+        <v>352543</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>273608</v>
+        <v>273555</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>920608</v>
+        <v>919690</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1156548</v>
+        <v>1152042</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>1015051</v>
+        <v>1018153</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>811423</v>
+        <v>811942</v>
       </c>
     </row>
     <row r="40">
